--- a/scripts/meta/JIRA-161-DSRMWS-FORM_DATA_CLEANUP/DSRMWS-161-0331.xlsx
+++ b/scripts/meta/JIRA-161-DSRMWS-FORM_DATA_CLEANUP/DSRMWS-161-0331.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\jira161-DSRMWS-161\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACCB197-954B-43F1-84DA-712D688851B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C9F4C-0C13-40C5-BB8F-B34FE402C755}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0AC35818-EF86-46E5-A9C9-DA803EC9BE79}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
   <si>
     <t>Records#</t>
   </si>
@@ -1636,24 +1636,6 @@
     <t>3d PHASE OF CLEANING</t>
   </si>
   <si>
-    <t>delete from sbrext.VALID_VALUES_ATT_EXT 
-where  qc_idseq in
-(select qc_idseq from sbrext.quest_contents_ext where qtl_name = 'VALID_VALUE'
- MINUS
-select vv.qc_idseq from 
-sbrext.quest_contents_ext vv,
-sbrext.quest_contents_ext q,
-sbrext.quest_contents_ext m,
-sbrext.quest_contents_ext f
-where f.qc_idseq=m.dn_crf_idseq
-and q.P_MOD_IDSEQ=m.QC_IDSEQ
-and vv.P_QST_IDSEQ=q.QC_IDSEQ
-and f.qtl_name in('CRF','TEMPLATE')
-and m.qtl_name = 'MODULE'
-and q.qtl_name = 'QUESTION'
-and vv.qtl_name = 'VALID_VALUE');</t>
-  </si>
-  <si>
     <t>delete from
 sbrext.quest_contents_ext foot  
 where foot.qtl_name= 'FORM_INSTR' 
@@ -2173,33 +2155,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2686517 records to be migrated</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-select count(*) from 
-sbrext.quest_contents_ext q,
-sbrext.ADMINISTERED_COMPONENTS A
-where AC_idseq=q.QC_IDSEQ
-and ACTL_NAME = 'QUEST_CONTENT';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>2688135 records</t>
     </r>
     <r>
@@ -2283,7 +2238,34 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1618 records to be cleanup
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2678480 records to be migrated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+select count(*) from 
+sbrext.quest_contents_ext q,
+sbrext.ADMINISTERED_COMPONENTS A
+where AC_idseq=q.QC_IDSEQ
+and ACTL_NAME = 'QUEST_CONTENT';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9655 records to be cleanup
 </t>
     </r>
     <r>
@@ -2308,6 +2290,36 @@
 and good.ac_idseq is null)
 ;</t>
     </r>
+  </si>
+  <si>
+    <t>QUEST_CONTENTS_EXT</t>
+  </si>
+  <si>
+    <t>delete from sbrext.VALID_VALUES_ATT_EXT 
+where  qc_idseq in
+(select del.qc_idseq
+from sbrext.quest_contents_ext del , 
+(select vv.qc_idseq from 
+sbrext.quest_contents_ext vv,
+sbrext.quest_contents_ext q,
+sbrext.quest_contents_ext m,
+sbrext.quest_contents_ext f
+where f.qc_idseq=m.dn_crf_idseq
+and q.P_MOD_IDSEQ=m.QC_IDSEQ
+and vv.P_QST_IDSEQ=q.QC_IDSEQ
+and f.qtl_name in('CRF','TEMPLATE')
+and m.qtl_name = 'MODULE'
+and q.qtl_name = 'QUESTION'
+and vv.qtl_name = 'VALID_VALUE')good
+where del.qtl_name = 'VALID_VALUE'
+and good.qc_idseq(+)=del.QC_IDSEQ 
+and good.qc_idseq is null);</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2504,6 +2516,75 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2819,21 +2900,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51F5CE6-1BD3-4AF4-A464-18753080E158}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" customWidth="1"/>
-    <col min="3" max="3" width="65.7265625" customWidth="1"/>
-    <col min="4" max="4" width="60.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="62" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="61.1796875" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="47.26953125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.90625" customWidth="1"/>
     <col min="8" max="9" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2847,13 +2928,13 @@
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="57" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -2864,8 +2945,11 @@
       <c r="A2" s="28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="41"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
@@ -2875,12 +2959,16 @@
       <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="43"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="24"/>
+    </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="200.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
@@ -2891,10 +2979,10 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="1">
@@ -2904,18 +2992,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="43"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="24"/>
+    </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="270" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="37" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="1">
@@ -2925,7 +3020,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="24"/>
+    </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="300" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
@@ -2936,10 +3035,10 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="37" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="2">
@@ -2949,7 +3048,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="44"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="59"/>
+    </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="300.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -2957,10 +3060,10 @@
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="37" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="1">
@@ -2972,15 +3075,15 @@
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="246.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:7" s="24" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="300" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="320" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2990,23 +3093,26 @@
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="37" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>77</v>
       </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:7" s="20" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
@@ -3018,20 +3124,24 @@
       <c r="C16" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="20">
-        <v>7</v>
+      <c r="F16" s="1">
+        <v>6</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="24"/>
+    </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>14</v>
@@ -3042,20 +3152,24 @@
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="37" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="43"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="24"/>
+    </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>14</v>
@@ -3066,21 +3180,25 @@
       <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="37" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="43"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="290" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -3090,20 +3208,24 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>92</v>
+      <c r="D22" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>91</v>
       </c>
       <c r="F22" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="43"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="24"/>
+    </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>14</v>
@@ -3114,21 +3236,25 @@
       <c r="C24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>93</v>
+      <c r="D24" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="F24" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="200" customHeight="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="43"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -3138,14 +3264,14 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>94</v>
+      <c r="D26" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>93</v>
       </c>
       <c r="F26" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>60</v>
@@ -3155,132 +3281,175 @@
       <c r="A27" s="29" t="s">
         <v>85</v>
       </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="32"/>
-    </row>
-    <row r="29" spans="1:7" s="34" customFormat="1" ht="200" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="34" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="61"/>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="230" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="1">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="44"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="59"/>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="320" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="1">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="48"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="62"/>
+    </row>
+    <row r="33" spans="1:7" s="35" customFormat="1" ht="200" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C33" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="230" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="300" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:7" s="35" customFormat="1" ht="200" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="36" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="48"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="62"/>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:7" s="10" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="10">
+        <v>15</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="48"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="62"/>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>105</v>
       </c>
       <c r="F38" s="10">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:7" s="10" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="10">
-        <v>6</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>108</v>
-      </c>
+    </row>
+    <row r="39" spans="1:7" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="46"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="60"/>
+    </row>
+    <row r="40" spans="1:7" s="34" customFormat="1" ht="250" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="46"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3670,6 +3839,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010015063B70CFBA0A4EA9AA5837B994D482" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80eeefaa857b8f3276062b560f7c3d62">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87c39ab2-de71-4f76-8619-512a67de3903" xmlns:ns4="3c39e367-f821-4734-a86f-0cab7f942330" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a8efe39467735c6d8c9ecf731fd39a0" ns3:_="" ns4:_="">
     <xsd:import namespace="87c39ab2-de71-4f76-8619-512a67de3903"/>
@@ -3840,15 +4018,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACFF3279-E9D1-43D7-B9AC-40860BDB247D}">
   <ds:schemaRefs>
@@ -3867,6 +4036,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF1B9F5D-26D0-4BEE-86A8-FC87FCDE97A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A73C9BB3-7F85-4F6B-8716-DB2C4BDC0E40}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3883,12 +4060,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF1B9F5D-26D0-4BEE-86A8-FC87FCDE97A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>